--- a/biology/Médecine/Paul_Helot_(fils)/Paul_Helot_(fils).xlsx
+++ b/biology/Médecine/Paul_Helot_(fils)/Paul_Helot_(fils).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Helot, né le 2 juin 1901 à Rouen et mort le 7 août 1964 à Mont-Saint-Aignan, est un médecin français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrière-petit-fils de Jules Helot, petit-fils de Paul Helot, et fils de René Helot, il a fait ses études de médecine à Rouen. Sa thèse fut soutenue à Paris en 1928. Il fut médecin oto-rhino-laryngologiste à Rouen. 
 Il participa à de nombreuses sociétés culturelles et historiques rouennaises. 
 Membre du Conseil de l'Ordre des médecins en 1951, secrétaire en 1954.
-Membre fondateur et premier président de la Société des Amis des vieux moulins de France en 1928[1].
+Membre fondateur et premier président de la Société des Amis des vieux moulins de France en 1928.
 Il fut maire-adjoint chargé des Beaux-arts en 1941, rédacteur d'un rapport : Urbanisme, hygiène, archéologie et charme des villes provinciales.
 Membre de l'Académie des sciences, belles-lettres et arts de Rouen en 1945.
 Président de la Société de médecine en 1949
@@ -554,11 +568,47 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des médecins du temps de Molière aux médecins du temps futur : discours de réception du Dr Paul Hélot [à l'Académie des sciences, belles-lettres et arts de Rouen], 8 décembre 1945, Rouen, Albert Lainé, 1952, 16 p. (OCLC 459862450)
-Fiction
-Henri Lerville Boubert, Le Trésor du Jupiter, Rouen, Maugard, 1945, 143 p. (OCLC 459862466)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des médecins du temps de Molière aux médecins du temps futur : discours de réception du Dr Paul Hélot [à l'Académie des sciences, belles-lettres et arts de Rouen], 8 décembre 1945, Rouen, Albert Lainé, 1952, 16 p. (OCLC 459862450)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Helot_(fils)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Helot_(fils)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Henri Lerville Boubert, Le Trésor du Jupiter, Rouen, Maugard, 1945, 143 p. (OCLC 459862466)
 Henri Lerville Boubert, Christine Arcel, Rouen, H. Defontaine, 1945, 256 p. (OCLC 459862446)</t>
         </is>
       </c>
